--- a/biology/Botanique/Œillet_d'Inde/Œillet_d'Inde.xlsx
+++ b/biology/Botanique/Œillet_d'Inde/Œillet_d'Inde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92illet_d%27Inde</t>
+          <t>Œillet_d'Inde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tagetes patula
 L'œillet d'Inde (Tagetes patula) est une espèce de plantes à fleurs de la famille des Asteraceae. Elle est originaire des régions tropicales des Amériques allant du Mexique à la Bolivie.
 Ce sont des plantes herbacées. Cette espèce de tagètes (ou tagettes) fait partie de celles dont les fleurs sont comestibles, et son goût se rapproche de celui du fruit de la passion.
 On l'utilise dans les potages, les beurres aromatisés ou « beurres fleuris », et ses pétales colorent les salades de fruits. Ces propriétés colorantes lui valent le surnom de « safran du pauvre ».
-L'Empereur Charles-Quint, lors de son expédition en Afrique en 1535, la trouva dans les environs de Tunis et fut attiré par la brillance de ses couleurs, quoique peu agréable par son odeur. Il fut nommé « Fleur de Tunis », et désigné aussi sous le nom d’Africaine[1].
+L'Empereur Charles-Quint, lors de son expédition en Afrique en 1535, la trouva dans les environs de Tunis et fut attiré par la brillance de ses couleurs, quoique peu agréable par son odeur. Il fut nommé « Fleur de Tunis », et désigné aussi sous le nom d’Africaine.
 Le nom « œillet d'Inde » vient de sa ressemblance avec l'œillet commun (Dianthus caryophyllus), et du fait que la plante a été initialement importée des Antilles, à l'époque où elles faisaient partie de ce qu'on appelait les « Indes occidentales ». On l'appelle aussi « maregold », « marigold », ou « bonanza ».
 </t>
         </is>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92illet_d%27Inde</t>
+          <t>Œillet_d'Inde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œillet d'Inde est une plante annuelle très florifère, à croissance rapide, facile à cultiver.
 Elle aime une exposition ensoleillée et tolère la mi-ombre.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92illet_d%27Inde</t>
+          <t>Œillet_d'Inde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En anglais, l'œillet d'Inde est appelé « French marigold », car les horticulteurs français en ont créé un très grand nombre de variétés depuis son introduction en France, au XVIe siècle. Il existe ainsi des variétés naines, à fleurs simples ou à fleurs de scabieuse.
 En espagnol d'Espagne, on nomme cette fleur « Calendura ».
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92illet_d%27Inde</t>
+          <t>Œillet_d'Inde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Compagnonnage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œillet d'Inde est souvent utilisé comme plante compagne.
 L'odeur de son feuillage est souvent considérée comme déplaisante. Elle attire les syrphes, des papillons, mais repousse de nombreux parasites comme les pucerons, et les fourmis qui les « élèvent ».
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C5%92illet_d%27Inde</t>
+          <t>Œillet_d'Inde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,9 +635,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, l'œillet d'Inde symbolise la séparation[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'œillet d'Inde symbolise la séparation.
 </t>
         </is>
       </c>
